--- a/Docker.xlsx
+++ b/Docker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/251c28866aa2969c/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Puropale_docs_assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{520122DF-E081-4FB5-90CA-019BC0BAA109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1AD7D0-DFDE-4FAA-885D-7248D018B6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{247031BC-C855-4AFD-AFC7-4E567F4C5A22}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>S.No</t>
   </si>
@@ -112,6 +112,54 @@
   </si>
   <si>
     <t>tom</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>3123f56531af</t>
+  </si>
+  <si>
+    <t>fe51dfedc40c</t>
+  </si>
+  <si>
+    <t>python-flask-app</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>jenkins-server</t>
+  </si>
+  <si>
+    <t>eff2362b2d14</t>
+  </si>
+  <si>
+    <t>0d0d7a399d62</t>
+  </si>
+  <si>
+    <t>Port Number</t>
+  </si>
+  <si>
+    <t>80:80</t>
+  </si>
+  <si>
+    <t>40:80</t>
+  </si>
+  <si>
+    <t>8080:80</t>
+  </si>
+  <si>
+    <t>8080:8080</t>
+  </si>
+  <si>
+    <t>5000:5000</t>
   </si>
 </sst>
 </file>
@@ -463,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A55B37A-0368-429F-BA30-CD74329D6767}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,9 +524,10 @@
     <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,8 +546,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -517,8 +569,11 @@
       <c r="F2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -537,8 +592,11 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -557,8 +615,11 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -576,6 +637,60 @@
       </c>
       <c r="F5" t="s">
         <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
